--- a/Dataset/distinct_products_with_categories.xlsx
+++ b/Dataset/distinct_products_with_categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4013"/>
+  <dimension ref="A1:B4010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,31 +1108,31 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLUE TRAVEL FIRST AID KIT</t>
+          <t>3 RAFFIA RIBBONS 50'S CHRISTMAS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Crafts &amp; DI</t>
+          <t>Crafts &amp; DIY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EMERGENCY FIRST AID TIN</t>
+          <t>3 STRIPEY MICE FELTCRAFT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Crafts &amp; DI</t>
+          <t>Crafts &amp; DIY</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3 RAFFIA RIBBONS 50'S CHRISTMAS</t>
+          <t>6 RIBBONS EMPIRE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3 STRIPEY MICE FELTCRAFT</t>
+          <t>6 RIBBONS RUSTIC CHARM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6 RIBBONS EMPIRE</t>
+          <t>6 RIBBONS SHIMMERING PINKS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6 RIBBONS RUSTIC CHARM</t>
+          <t>ALPHABET STENCIL CRAFT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6 RIBBONS SHIMMERING PINKS</t>
+          <t>ASS DES PHONE SPONGE CRAFT STICKER</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ALPHABET STENCIL CRAFT</t>
+          <t>ASS FLORAL PRINT MULTI SCREWDRIVER</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ASS DES PHONE SPONGE CRAFT STICKER</t>
+          <t>BALLOON ART MAKE YOUR OWN FLOWERS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ASS FLORAL PRINT MULTI SCREWDRIVER</t>
+          <t>BASKET OF FLOWERS SEWING KIT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BALLOON ART MAKE YOUR OWN FLOWERS</t>
+          <t>BLOSSOM IMAGES SCRAP BOOK SET</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BASKET OF FLOWERS SEWING KIT</t>
+          <t>BLUE TRAVEL FIRST AID KIT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BLOSSOM IMAGES SCRAP BOOK SET</t>
+          <t>BRIGHT BLUES RIBBONS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BRIGHT BLUES RIBBONS</t>
+          <t>CHRISTMAS CRAFT LITTLE FRIENDS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CHRISTMAS CRAFT LITTLE FRIENDS</t>
+          <t>CROCHET ROSE DES CLOTHES HANGER</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CROCHET ROSE DES CLOTHES HANGER</t>
+          <t>DANISH ROSE ROUND SEWING BOX</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DANISH ROSE ROUND SEWING BOX</t>
+          <t>DELUXE SEWING KIT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DELUXE SEWING KIT</t>
+          <t>EMBROIDERED RIBBON REEL CLAIRE</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL CLAIRE</t>
+          <t>EMBROIDERED RIBBON REEL DAISY</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL DAISY</t>
+          <t>EMBROIDERED RIBBON REEL EMILY</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL EMILY</t>
+          <t>EMBROIDERED RIBBON REEL RACHEL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL RACHEL</t>
+          <t>EMBROIDERED RIBBON REEL REBECCA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL REBECCA</t>
+          <t>EMBROIDERED RIBBON REEL ROSIE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL ROSIE</t>
+          <t>EMBROIDERED RIBBON REEL RUBY</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL RUBY</t>
+          <t>EMBROIDERED RIBBON REEL SALLY</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL SALLY</t>
+          <t>EMBROIDERED RIBBON REEL SOPHIE</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL SOPHIE</t>
+          <t>EMBROIDERED RIBBON REEL SUSIE</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL SUSIE</t>
+          <t>EMERGENCY FIRST AID TIN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -48552,30 +48552,6 @@
           <t>Vintage &amp; Collectibles</t>
         </is>
       </c>
-    </row>
-    <row r="4011">
-      <c r="A4011" t="inlineStr">
-        <is>
-          <t>OOPS ! adjustment</t>
-        </is>
-      </c>
-      <c r="B4011" t="inlineStr"/>
-    </row>
-    <row r="4012">
-      <c r="A4012" t="inlineStr">
-        <is>
-          <t>Wrongly mrked had 85123a in box</t>
-        </is>
-      </c>
-      <c r="B4012" t="inlineStr"/>
-    </row>
-    <row r="4013">
-      <c r="A4013" t="inlineStr">
-        <is>
-          <t>crushed ctn</t>
-        </is>
-      </c>
-      <c r="B4013" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
